--- a/src/test/resources/Testdata/dataforhackathon.xlsx
+++ b/src/test/resources/Testdata/dataforhackathon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amitf\eclipse-workspace\LMSHackathon_Phase2\src\test\resources\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799F9F3A-E1B8-4D46-B795-425C6B4927F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9367EAB-735F-4EFE-A603-83FDAE87689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A29177D1-063F-476E-95C9-478361BFC846}"/>
+    <workbookView xWindow="5925" yWindow="5565" windowWidth="20460" windowHeight="10890" xr2:uid="{A29177D1-063F-476E-95C9-478361BFC846}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>testid</t>
   </si>
@@ -81,9 +81,6 @@
     <t>(invalidclassdate)</t>
   </si>
   <si>
-    <t>steffina@gmail.com</t>
-  </si>
-  <si>
     <t>(validclassdecsription)</t>
   </si>
   <si>
@@ -136,13 +133,55 @@
   </si>
   <si>
     <t>invaliddate</t>
+  </si>
+  <si>
+    <t>Textboxlabelsinside</t>
+  </si>
+  <si>
+    <t>Select a Program name</t>
+  </si>
+  <si>
+    <t>Select Class Name</t>
+  </si>
+  <si>
+    <t>Select students</t>
+  </si>
+  <si>
+    <t>Select Attendance</t>
+  </si>
+  <si>
+    <t>Program Name</t>
+  </si>
+  <si>
+    <t>Class Name</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Attendance Date</t>
+  </si>
+  <si>
+    <t>Textboxlabel</t>
+  </si>
+  <si>
+    <t>(validclassid)</t>
+  </si>
+  <si>
+    <t>U07</t>
+  </si>
+  <si>
+    <t>(validstudentid)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +199,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -189,7 +235,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -505,16 +551,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A23F17A-2DCD-486D-A8CE-5FEF602873A9}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
@@ -535,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -593,7 +639,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -680,16 +726,22 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
+      <c r="B13" s="2">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>1234</v>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -697,10 +749,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -708,10 +760,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -719,10 +771,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -730,15 +782,15 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>7576</v>
@@ -755,7 +807,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>7575</v>
@@ -772,7 +824,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>7576</v>
@@ -790,21 +842,21 @@
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>7575</v>
@@ -824,7 +876,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -838,7 +890,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>7576</v>
@@ -855,7 +907,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>7576</v>
@@ -869,7 +921,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>7576</v>
@@ -881,12 +933,12 @@
         <v>45239</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>7576</v>
@@ -901,11 +953,45 @@
         <v>10</v>
       </c>
     </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{8F78B06F-FA74-4308-91EA-16A710F4C88F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/Testdata/dataforhackathon.xlsx
+++ b/src/test/resources/Testdata/dataforhackathon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amitf\eclipse-workspace\LMSHackathon_Phase2\src\test\resources\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9367EAB-735F-4EFE-A603-83FDAE87689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C6763F-EC80-4299-8640-CC6155DA6A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="5565" windowWidth="20460" windowHeight="10890" xr2:uid="{A29177D1-063F-476E-95C9-478361BFC846}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A29177D1-063F-476E-95C9-478361BFC846}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>testid</t>
   </si>
@@ -175,6 +175,21 @@
   </si>
   <si>
     <t>(validstudentid)</t>
+  </si>
+  <si>
+    <t>Dditems</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>absent</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>excused</t>
   </si>
 </sst>
 </file>
@@ -551,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A23F17A-2DCD-486D-A8CE-5FEF602873A9}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,6 +1005,23 @@
         <v>42</v>
       </c>
     </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
